--- a/biology/Zoologie/Enochrus_striatus/Enochrus_striatus.xlsx
+++ b/biology/Zoologie/Enochrus_striatus/Enochrus_striatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Enochrus striatus est une espèce fossile d'insectes coléoptères de la famille des Hydrophilidae et du genre Enochrus.
 </t>
@@ -511,13 +523,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Enochrus striatus est décrite en 1937 par le paléontologue français Théobald (1903-1981)[1],[2]. 
-Fossile
-L'holotype C102 conservé dans les collections du Muséum d'histoire naturelle de Marseille, vient des terrains sannoisiens du lieu-dit Célas, dans la formation de Célas, dans le département du Gard.
-Étymologie
-L'épithète spécifique striatus signifie « rayée ou striée » en latin.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Enochrus striatus est décrite en 1937 par le paléontologue français Théobald (1903-1981),. 
 </t>
         </is>
       </c>
@@ -543,18 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Classification</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Caractères
-La diagnose de Nicolas Théobald en 1937[1],[note 1] : 
-« Un insecte de petite taille, corps noirâtre. Tête large, courte ; deux yeux arrondis, assez petits, placés près du bord du thorax. Corselet évasé vers l'arrière, à peine échancré à l'avant ; bords bombés ; surface lisse ; scutellum petit et triangulaire. Élytres peu allongés ; bord antérieur droit ; épaule saillante ; sommet arrondi ; surface ornée de huit stries ponctuées. »[1].
-Dimensions
-La longueur totale est de 4,5 mm, et la longueur de l'élytre de 3,5 mm[1].
-Affinités
-« En raison de la conservation imparfaite, la détermination de cet Insecte offre de grandes difficultés. La forme du corps et l'ornementation des élytres nous a finalement conduit à l'attribuer au g. Enochrus de la tribu des Hydrobiini. Ce dernier présente aussi huit rangées de points régulièrement enfoncés et de forme semblable. »[1].
+          <t>Fossile</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype C102 conservé dans les collections du Muséum d'histoire naturelle de Marseille, vient des terrains sannoisiens du lieu-dit Célas, dans la formation de Célas, dans le département du Gard.
 </t>
         </is>
       </c>
@@ -580,13 +590,166 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'épithète spécifique striatus signifie « rayée ou striée » en latin.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Caractères</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+La diagnose de Nicolas Théobald en 1937,[note 1] : 
+« Un insecte de petite taille, corps noirâtre. Tête large, courte ; deux yeux arrondis, assez petits, placés près du bord du thorax. Corselet évasé vers l'arrière, à peine échancré à l'avant ; bords bombés ; surface lisse ; scutellum petit et triangulaire. Élytres peu allongés ; bord antérieur droit ; épaule saillante ; sommet arrondi ; surface ornée de huit stries ponctuées. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Dimensions</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La longueur totale est de 4,5 mm, et la longueur de l'élytre de 3,5 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Affinités</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+« En raison de la conservation imparfaite, la détermination de cet Insecte offre de grandes difficultés. La forme du corps et l'ornementation des élytres nous a finalement conduit à l'attribuer au g. Enochrus de la tribu des Hydrobiini. Ce dernier présente aussi huit rangées de points régulièrement enfoncés et de forme semblable. ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Enochrus_striatus</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t xml:space="preserve">
-« On connaît actuellement une espèce européenne : Enochrus melanocephalus vivant dans les eaux douces de l'Europe centrale. »[1].
+« On connaît actuellement une espèce européenne : Enochrus melanocephalus vivant dans les eaux douces de l'Europe centrale. ».
 </t>
         </is>
       </c>
